--- a/biology/Médecine/Héros_en_blanc/Héros_en_blanc.xlsx
+++ b/biology/Médecine/Héros_en_blanc/Héros_en_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9ros_en_blanc</t>
+          <t>Héros_en_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Héros en blanc (titre original : Sauerbruch – Das war mein Leben[1]) est un film allemand réalisé par Rolf Hansen, sorti en 1954.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Héros en blanc (titre original : Sauerbruch – Das war mein Leben) est un film allemand réalisé par Rolf Hansen, sorti en 1954.
 Il s'agit d'une adaptation des mémoires du chirurgien Ferdinand Sauerbruch, parus dans Revue peu de temps auparavant (bien qu'ils soient l'œuvre d'un nègre Hans Rudolf Berndorff (de)).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9ros_en_blanc</t>
+          <t>Héros_en_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Berlin, 1948 : Olga Ahrends est renversé par un tramway et gravement blessé. Le professeur Sauerbruch arrive et la fait admettre à la Charité où elle sera opérée. Mais on croit à une tentative de suicide, elle est admise en psychiatrie.
 Commence une âpre dispute entre le chirurgien et les psychiatres qui ont diagnostiqué une épilepsie névrotique tandis Sauerbruch découvre que, en réalité, elle souffre d'un trouble métabolique qui affaiblit les os. Elle pourrait perdre sa jambe, mais par l'ablation de la glande parathyroïde, il parvient à la guérir. Il a financé lui-même l'opération.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9ros_en_blanc</t>
+          <t>Héros_en_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Héros en blanc
 Titre original : Sauerbruch – Das war mein Leben
@@ -572,7 +588,7 @@
  Belgique : 1er juillet 1955.
  Suède : 28 novembre 1955.
  Danemark : 26 décembre 1955.
- France : 7 décembre 1956[1].</t>
+ France : 7 décembre 1956.</t>
         </is>
       </c>
     </row>
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9ros_en_blanc</t>
+          <t>Héros_en_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ewald Balser : prof. Ferdinand Sauerbruch
 Heidemarie Hatheyer : Olga Ahrends
